--- a/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,13 +977,2229 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.2126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3146,7 +3147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3157,17 +3158,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3177,14 +3198,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.16</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.6532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3193,13 +3236,1563 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5529</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2579</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4723,7 +4724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4734,17 +4735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4754,14 +4775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.9</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.9253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4770,14 +4813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>57</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.16</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4786,13 +4851,1959 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7856</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>40.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,471 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长盛电子信息产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2635</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>700003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>平安策略先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2625</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009428</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏扬景沣六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2338</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>050010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时特许价值混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2324</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>平安转型创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1145</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004391</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安转型创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0641</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009429</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬景沣六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.41</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009843</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中金泰顺12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002813</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时颐泰混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002814</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时颐泰混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -928,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -989,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>179.86</t>
+          <t>166.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17.2126</t>
+          <t>13.9253</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1017,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>000603</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>易方达创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.11</t>
+          <t>72.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3763</t>
+          <t>2.0216</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1065,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.44</t>
+          <t>31.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.72</t>
+          <t>96.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2205</t>
+          <t>1.4445</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1093,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>014143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>银河创新成长混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>40.55</t>
+          <t>16.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.71</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9529</t>
+          <t>1.4145</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1131,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257070</t>
+          <t>050009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安优选行业混合</t>
+          <t>博时新兴成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>27.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8553</t>
+          <t>1.2255</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1169,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.84</t>
+          <t>22.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8454</t>
+          <t>0.9391</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1207,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007340</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方科技创新混合A</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.53</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.13</t>
+          <t>88.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8374</t>
+          <t>0.7856</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1245,32 +871,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001513</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达信息产业混合</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.53</t>
+          <t>24.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.48</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7268</t>
+          <t>0.6994</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1283,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001956</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安科技动力股票</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6979</t>
+          <t>0.6975</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1321,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>700003</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平安策略先锋混合</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25.68</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77.01</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6651</t>
+          <t>0.5938</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1359,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>39.02</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4184</t>
+          <t>0.5679</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1397,32 +1023,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501096</t>
+          <t>910005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+          <t>东方红启兴三年持有混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>92.97</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.4099</t>
+          <t>0.4141</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1435,36 +1061,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>013840</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>银华集成电路混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3761</t>
+          <t>0.4067</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1473,36 +1099,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>080012</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长盛电子信息产业混合</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3315</t>
+          <t>0.2984</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1511,36 +1137,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004391</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合C</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.68</t>
+          <t>93.77</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2983</t>
+          <t>0.2092</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1549,36 +1175,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011160</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国质量成长6个月持有期混合A</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1590</t>
+          <t>0.1516</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1587,36 +1213,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>013339</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>创金合信芯片产业股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1587</t>
+          <t>0.1426</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1625,36 +1251,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000063</t>
+          <t>010237</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长盛电子信息主题灵活配置混合</t>
+          <t>安信创新先锋混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68.02</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1479</t>
+          <t>0.1335</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1663,36 +1289,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010994</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时创新经济混合A</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.19</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.1134</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1701,36 +1327,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007965</t>
+          <t>005396</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票A</t>
+          <t>中金丰硕混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>81.21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1347</t>
+          <t>0.1125</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1739,36 +1365,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信研究精选股票A</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1331</t>
+          <t>0.1072</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1777,36 +1403,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>010238</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>安信创新先锋混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1815,36 +1441,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010237</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>安信创新先锋混合A</t>
+          <t>东吴新趋势价值线灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1863,22 +1489,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0784</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1891,36 +1517,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>001662</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>65.97</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1929,36 +1555,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>013841</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>银华集成电路混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1967,36 +1593,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004390</t>
+          <t>012696</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平安转型创新灵活配置混合A</t>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>87.68</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0612</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2005,36 +1631,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011599</t>
+          <t>000966</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国联安匠心科技1个月滚动持有混合</t>
+          <t>中邮核心科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0572</t>
+          <t>0.0457</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2043,36 +1669,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007341</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方科技创新混合C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.13</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2081,36 +1707,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010238</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安信创新先锋混合C</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0527</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2119,36 +1745,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>000767</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>华富国泰民安灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>84.23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2157,32 +1783,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001662</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>创金合信沪港深研究精选灵活配置混合</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0497</t>
+          <t>0.0207</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2195,36 +1821,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>000966</t>
+          <t>519172</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中邮核心科技创新灵活配置混合</t>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -2233,36 +1859,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>519127</t>
+          <t>006801</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>浦银安盛盛世精选灵活配置混合A</t>
+          <t>新疆前海联合科技先锋混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>72.52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0372</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2271,12 +1897,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>013339</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票A</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2286,21 +1912,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2309,36 +1935,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>519172</t>
+          <t>012697</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>浦银安盛睿智精选灵活配置混合A</t>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2347,36 +1973,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>519177</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>浦银安盛盛世精选灵活配置混合C</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>76.37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0124</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2385,36 +2011,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>007965</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>民生加银品质消费股票A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2423,36 +2049,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2461,36 +2087,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2499,36 +2125,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>004274</t>
+          <t>011702</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>浦银安盛安恒回报定期开放混合A</t>
+          <t>广发睿享稳健增利混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2537,36 +2163,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>519175</t>
+          <t>015078</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>浦银安盛经济带崛起灵活配置混合</t>
+          <t>平安灵活配置混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>33.22</t>
+          <t>76.37</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2575,36 +2201,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>007966</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>民生加银品质消费股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>45.36</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2613,36 +2239,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010995</t>
+          <t>519173</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>博时创新经济混合C</t>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>79.19</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2651,36 +2277,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>519173</t>
+          <t>006802</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>浦银安盛睿智精选灵活配置混合C</t>
+          <t>新疆前海联合科技先锋混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>72.52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2689,36 +2315,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>007966</t>
+          <t>002640</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票C</t>
+          <t>中信建投睿溢混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>39.52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2727,32 +2353,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2765,36 +2391,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>000926</t>
+          <t>014581</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中信建投睿信灵活配置混合A</t>
+          <t>东吴阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>61.96</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0049</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2803,36 +2429,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2841,36 +2467,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>004801</t>
+          <t>006843</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浦银安盛安久回报定期开放混合A</t>
+          <t>中信建投睿溢混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>39.52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2879,262 +2505,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>011161</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>富国质量成长6个月持有期混合C</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>40.14</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004275</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>浦银安盛安恒回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>010002</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>创金合信研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008910</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>创金合信鑫益混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>91.65</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>004676</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中信建投睿信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>61.96</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006845</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>中信建投聚利混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>39.02</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>004802</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>浦银安盛安久回报定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>21.55</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4724,7 +4124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,26 +4185,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>166.97</t>
+          <t>179.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13.9253</t>
+          <t>17.2126</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4813,36 +4213,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000603</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达创新驱动灵活配置混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>72.20</t>
+          <t>35.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0216</t>
+          <t>1.3763</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4861,26 +4261,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.54</t>
+          <t>37.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.80</t>
+          <t>84.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4445</t>
+          <t>1.2205</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4889,36 +4289,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014143</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河创新成长混合C</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>46.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4145</t>
+          <t>0.9529</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4927,36 +4327,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050009</t>
+          <t>257070</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时新兴成长混合</t>
+          <t>国联安优选行业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.54</t>
+          <t>14.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2255</t>
+          <t>0.8553</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4965,36 +4365,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9391</t>
+          <t>0.8454</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -5003,36 +4403,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>007340</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>南方科技创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>25.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7856</t>
+          <t>0.8374</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -5041,32 +4441,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>001513</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>易方达信息产业混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.54</t>
+          <t>41.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>87.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6994</t>
+          <t>0.7268</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -5079,36 +4479,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>001956</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>国联安科技动力股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6975</t>
+          <t>0.6979</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -5117,36 +4517,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>700003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>平安策略先锋混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.24</t>
+          <t>25.68</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>77.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5938</t>
+          <t>0.6651</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -5155,36 +4555,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>18.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>39.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5679</t>
+          <t>0.4184</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -5193,32 +4593,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>910005</t>
+          <t>501096</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方红启兴三年持有混合A</t>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.4141</t>
+          <t>0.4099</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -5231,36 +4631,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013840</t>
+          <t>050010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华集成电路混合A</t>
+          <t>博时特许价值混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4067</t>
+          <t>0.3761</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -5269,36 +4669,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>050010</t>
+          <t>080012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时特许价值混合A</t>
+          <t>长盛电子信息产业混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>88.97</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2984</t>
+          <t>0.3315</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -5307,36 +4707,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>004391</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>平安转型创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>87.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2092</t>
+          <t>0.2983</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -5345,36 +4745,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>050018</t>
+          <t>011160</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时行业轮动混合</t>
+          <t>富国质量成长6个月持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1516</t>
+          <t>0.1590</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -5383,36 +4783,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013339</t>
+          <t>050018</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票A</t>
+          <t>博时行业轮动混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1426</t>
+          <t>0.1587</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -5421,36 +4821,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010237</t>
+          <t>000063</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信创新先锋混合A</t>
+          <t>长盛电子信息主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>68.02</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1335</t>
+          <t>0.1479</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -5459,36 +4859,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>010994</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>博时创新经济混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>79.19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.1464</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -5497,36 +4897,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005396</t>
+          <t>007965</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中金丰硕混合</t>
+          <t>民生加银品质消费股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1125</t>
+          <t>0.1347</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -5535,36 +4935,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>创金合信研究精选股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1072</t>
+          <t>0.1331</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -5573,36 +4973,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010238</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>安信创新先锋混合C</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0987</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -5611,36 +5011,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>010237</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东吴新趋势价值线灵活配置混合</t>
+          <t>安信创新先锋混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -5659,22 +5059,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -5687,36 +5087,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001662</t>
+          <t>005396</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信沪港深研究精选灵活配置混合</t>
+          <t>中金丰硕混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>65.97</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0570</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -5725,36 +5125,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>013841</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>银华集成电路混合C</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -5763,36 +5163,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>012696</t>
+          <t>004390</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>同泰数字经济主题股票型证券投资基金A</t>
+          <t>平安转型创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>87.68</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -5801,36 +5201,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000966</t>
+          <t>011599</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中邮核心科技创新灵活配置混合</t>
+          <t>国联安匠心科技1个月滚动持有混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>85.06</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -5839,36 +5239,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>007341</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>南方科技创新混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -5877,36 +5277,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>010238</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>安信创新先锋混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -5915,36 +5315,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华富国泰民安灵活配置混合</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -5953,32 +5353,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>001662</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>创金合信沪港深研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0207</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -5991,36 +5391,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>519172</t>
+          <t>000966</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>浦银安盛睿智精选灵活配置混合A</t>
+          <t>中邮核心科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>90.78</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -6029,36 +5429,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>006801</t>
+          <t>519127</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>新疆前海联合科技先锋混合A</t>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>72.52</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -6067,12 +5467,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000531</t>
+          <t>013339</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合</t>
+          <t>创金合信芯片产业股票A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6082,21 +5482,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -6105,36 +5505,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>012697</t>
+          <t>519172</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>同泰数字经济主题股票型证券投资基金C</t>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -6143,36 +5543,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>519177</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>76.37</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0124</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -6181,36 +5581,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007965</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票A</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -6219,36 +5619,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>000531</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>东吴阿尔法灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -6257,36 +5657,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -6295,36 +5695,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>011702</t>
+          <t>004274</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合C</t>
+          <t>浦银安盛安恒回报定期开放混合A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -6333,36 +5733,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>015078</t>
+          <t>519175</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平安灵活配置混合C</t>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>76.37</t>
+          <t>33.22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -6371,36 +5771,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>007966</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票C</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -6409,36 +5809,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>519173</t>
+          <t>010995</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>浦银安盛睿智精选灵活配置混合C</t>
+          <t>博时创新经济混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>79.19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -6447,36 +5847,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006802</t>
+          <t>519173</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>新疆前海联合科技先锋混合C</t>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>72.52</t>
+          <t>90.68</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -6485,36 +5885,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002640</t>
+          <t>007966</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中信建投睿溢混合A</t>
+          <t>民生加银品质消费股票C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>39.52</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -6523,32 +5923,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>40.14</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -6561,36 +5961,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>014581</t>
+          <t>000926</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东吴阿尔法灵活配置混合C</t>
+          <t>中信建投睿信灵活配置混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>61.96</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0049</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -6599,36 +5999,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005438</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -6637,36 +6037,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>006843</t>
+          <t>004801</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中信建投睿溢混合C</t>
+          <t>浦银安盛安久回报定期开放混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>39.52</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -6675,36 +6075,262 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>006845</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>中信建投聚利混合C</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>40.14</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>4</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6718,96 +6344,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.1</v>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.9</v>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.16</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.25</v>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>27.1</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>29.16</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -549,6 +566,1808 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011330</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华精选群英一年持有期灵活配置混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2542,7 +4361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4118,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6338,7 +8157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
+++ b/数据整理/stocks/A股/科创板/688187-时代电气.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>21.71</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>27.1</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>29.16</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -566,6 +583,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3872</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0302</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001662</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015967</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015678</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015968</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2367,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4361,7 +6030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5937,7 +7606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8157,7 +9826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
